--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Projects\korean-translator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8F3CC7-6355-4EE4-A728-AD6E9E67C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E718845C-4E43-4BA6-916A-DC1796378F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0F9442B-0813-4A33-9F4F-06DDC3C6999D}"/>
+    <workbookView xWindow="13290" yWindow="1215" windowWidth="21600" windowHeight="11295" xr2:uid="{D0F9442B-0813-4A33-9F4F-06DDC3C6999D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,1413 @@
       </rPr>
       <t>해주세요</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很高興見到你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만나서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반갑습니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請多多指教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부탁합니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝謝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是台灣人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대만사람이에요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얼마예요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個多少錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有其他尺寸嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有其他顏色嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以試穿嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請算我便宜一點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깎아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입어봐도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>색깔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請幫幫我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와 주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒關係</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從幾點開始可以辦理入住呢?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체크인이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請問最遲幾點要退房呢?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체크아웃해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請問有吹風機嗎?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드라이기가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以借轉換插頭嗎?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전기어댑터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빌릴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있을까요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請問這是開往機場的巴士嗎?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이버스가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공항으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가는거예요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到那邊大該要多久呢?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거기에가면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얼마시간을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>걸려야해요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要點餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할게요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請給我這個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이거로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不能吃牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소고기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹어요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계세요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請再給我一份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總共有 2 位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명이에요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老闆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사장님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이모님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姨母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請問有這個嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혹시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있으세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想要退貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싶어요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想要換貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싶어요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請給我收據</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영수증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用</t>
+  </si>
+  <si>
+    <t>아니요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +1835,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,6 +1885,41 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,12 +1938,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,9 +1956,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC73B597-ECE2-4D49-A9D2-236CEC61EE1D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -884,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -895,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -906,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -917,21 +2375,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -939,11 +2397,380 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Projects\korean-translator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E718845C-4E43-4BA6-916A-DC1796378F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D630C71-6C21-4318-B083-37C4A654DDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13290" yWindow="1215" windowWidth="21600" windowHeight="11295" xr2:uid="{D0F9442B-0813-4A33-9F4F-06DDC3C6999D}"/>
   </bookViews>
@@ -2306,7 +2306,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
